--- a/biology/Botanique/Forêt_d'Escoublac/Forêt_d'Escoublac.xlsx
+++ b/biology/Botanique/Forêt_d'Escoublac/Forêt_d'Escoublac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Escoublac</t>
+          <t>Forêt_d'Escoublac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt d'Escoublac est une forêt française située dans la commune de La Baule-Escoublac, le département de la Loire-Atlantique et la région Pays de la Loire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Escoublac</t>
+          <t>Forêt_d'Escoublac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt d'Escoublac est une pinède de 47 hectares[1] qui couvre une dune située au nord de la baie du Pouliguen, dont le point culminant atteint une altitude de 52 mètres, ce qui en fait la deuxième dune côtière la plus haute de France, après la dune du Pilat en Gironde (100 mètres).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt d'Escoublac est une pinède de 47 hectares qui couvre une dune située au nord de la baie du Pouliguen, dont le point culminant atteint une altitude de 52 mètres, ce qui en fait la deuxième dune côtière la plus haute de France, après la dune du Pilat en Gironde (100 mètres).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Escoublac</t>
+          <t>Forêt_d'Escoublac</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Les anciens villages ensevelis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous le sable de la dune de la forêt sont ensevelis les anciens bourgs d'Escoublac, successivement dévastés par un raz-de-marée en 1450, puis par le séisme et la très violente tempête du 4 mars 1751[2]. Une croix dans la forêt marque l'emplacement du bourg en 1751.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous le sable de la dune de la forêt sont ensevelis les anciens bourgs d'Escoublac, successivement dévastés par un raz-de-marée en 1450, puis par le séisme et la très violente tempête du 4 mars 1751. Une croix dans la forêt marque l'emplacement du bourg en 1751.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Escoublac</t>
+          <t>Forêt_d'Escoublac</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La forêt est le lieu de diverses activités sportives et culturelles :
 Jogging : un parcours de santé est implanté dans la partie ouest de la forêt, qui s'étend entre l'avenue Guy de la Morandais et le boulevard de Cacqueray et communément appelée le Bois d'Amour ;
